--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_133.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_133.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4824</v>
+        <v>1.6289</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>24.85</v>
       </c>
       <c r="K3" t="n">
-        <v>41.91</v>
+        <v>726.78</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>679.6944999999999</v>
+        <v>760.0809</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -694,13 +694,13 @@
         <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.3837</v>
+        <v>1.5132</v>
       </c>
       <c r="J4" t="n">
-        <v>1.49</v>
+        <v>18.99</v>
       </c>
       <c r="K4" t="n">
-        <v>36.95</v>
+        <v>515.8</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
       <c r="R4" t="n">
-        <v>661.1606</v>
+        <v>699.1151</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>6.0518</v>
+        <v>6.5065</v>
       </c>
       <c r="J5" t="n">
-        <v>26.85</v>
+        <v>26.31</v>
       </c>
       <c r="K5" t="n">
-        <v>2917.26</v>
+        <v>3073.57</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.07</v>
+        <v>7.93</v>
       </c>
       <c r="R5" t="n">
-        <v>2524.18</v>
+        <v>2648.1992</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>7.3984</v>
+        <v>7.9544</v>
       </c>
       <c r="J6" t="n">
-        <v>26.09</v>
+        <v>25.87</v>
       </c>
       <c r="K6" t="n">
-        <v>3466.05</v>
+        <v>3694.17</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.74</v>
+        <v>6.77</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.2407</v>
+        <v>2260.0789</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>3.457</v>
+        <v>3.7343</v>
       </c>
       <c r="J7" t="n">
-        <v>31.27</v>
+        <v>30.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1940.64</v>
+        <v>2061.53</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>5.03</v>
+        <v>4.99</v>
       </c>
       <c r="R7" t="n">
-        <v>1573.6308</v>
+        <v>1668.3794</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>39.6742</v>
+        <v>42.917</v>
       </c>
       <c r="J8" t="n">
-        <v>4.01</v>
+        <v>3.92</v>
       </c>
       <c r="K8" t="n">
-        <v>2854.15</v>
+        <v>3017.02</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>8.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>2810.2646</v>
+        <v>2991.2889</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p064mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p064mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1001,16 +1001,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I9" t="n">
-        <v>10.0751</v>
+        <v>12.1383</v>
       </c>
       <c r="J9" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="K9" t="n">
-        <v>348.58</v>
+        <v>365.81</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="R9" t="n">
-        <v>274.4402</v>
+        <v>331.4251</v>
       </c>
     </row>
   </sheetData>
